--- a/templates/8.xlsx
+++ b/templates/8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Winner</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Quarter-Final</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
   </si>
 </sst>
 </file>
@@ -100,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -194,11 +197,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -222,56 +256,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,7 +623,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,38 +633,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -629,29 +675,29 @@
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="H4" s="22" t="s">
+      <c r="F4" s="30"/>
+      <c r="H4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="22"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -663,28 +709,28 @@
     <row r="7" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
     </row>
     <row r="10" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
@@ -694,8 +740,8 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
       <c r="E13" s="14"/>
       <c r="F13" s="13"/>
       <c r="G13" s="5"/>
@@ -706,8 +752,8 @@
       <c r="E14" s="14"/>
       <c r="F14" s="13"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
@@ -715,26 +761,26 @@
       <c r="E15" s="14"/>
       <c r="F15" s="13"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="E16" s="14"/>
       <c r="F16" s="13"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="13"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="2:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
       <c r="E17" s="14"/>
       <c r="F17" s="13"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="13"/>
       <c r="J17" s="5"/>
     </row>
@@ -744,7 +790,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
-      <c r="H18" s="13"/>
+      <c r="H18" s="34"/>
       <c r="I18" s="13"/>
       <c r="J18" s="5"/>
     </row>
@@ -752,9 +798,9 @@
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="H19" s="13"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="H19" s="34"/>
       <c r="I19" s="13"/>
       <c r="J19" s="5"/>
     </row>
@@ -763,60 +809,65 @@
       <c r="C20" s="18"/>
       <c r="E20" s="14"/>
       <c r="F20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="34"/>
       <c r="I20" s="13"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
       <c r="E21" s="14"/>
       <c r="F21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="G21" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="32"/>
       <c r="I21" s="13"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="26" t="s">
+      <c r="K21" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="L21" s="26"/>
+      <c r="L21" s="32"/>
     </row>
     <row r="22" spans="2:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="13"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" spans="2:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="13"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="31"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="28"/>
     </row>
     <row r="24" spans="2:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="E24" s="14"/>
       <c r="F24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="H24" s="34"/>
       <c r="I24" s="13"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
       <c r="E25" s="14"/>
       <c r="F25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="H25" s="34"/>
       <c r="I25" s="13"/>
       <c r="J25" s="5"/>
     </row>
@@ -824,9 +875,9 @@
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-      <c r="H26" s="13"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="H26" s="34"/>
       <c r="I26" s="13"/>
       <c r="J26" s="5"/>
     </row>
@@ -834,9 +885,9 @@
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="H27" s="13"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="H27" s="34"/>
       <c r="I27" s="13"/>
       <c r="J27" s="5"/>
     </row>
@@ -846,17 +897,17 @@
       <c r="E28" s="14"/>
       <c r="F28" s="13"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="13"/>
+      <c r="H28" s="34"/>
       <c r="I28" s="13"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
       <c r="E29" s="14"/>
       <c r="F29" s="13"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="13"/>
+      <c r="H29" s="35"/>
       <c r="I29" s="13"/>
       <c r="J29" s="5"/>
     </row>
@@ -875,18 +926,16 @@
       <c r="E31" s="14"/>
       <c r="F31" s="13"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="16"/>
-      <c r="K31" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
     </row>
     <row r="32" spans="2:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
       <c r="E32" s="14"/>
       <c r="F32" s="13"/>
       <c r="G32" s="5"/>
@@ -896,17 +945,17 @@
       <c r="N32" s="11"/>
     </row>
     <row r="33" spans="2:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
       <c r="E33" s="14"/>
       <c r="F33" s="13"/>
       <c r="G33" s="5"/>
       <c r="K33" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
     </row>
     <row r="34" spans="2:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
@@ -914,23 +963,23 @@
       <c r="D34" s="7"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
     </row>
     <row r="35" spans="2:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="16"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
       <c r="K35" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
     </row>
     <row r="36" spans="2:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="17"/>
@@ -938,17 +987,17 @@
       <c r="K36" s="12"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="11"/>
+      <c r="N36" s="9"/>
     </row>
     <row r="37" spans="2:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
       <c r="K37" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
     </row>
     <row r="38" spans="2:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -958,7 +1007,32 @@
     <row r="43" spans="2:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="2:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="40">
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="L31:N31"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="B20:C20"/>
@@ -974,30 +1048,6 @@
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="L31:N31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
